--- a/Resultados/Probabilidades de N.xlsx
+++ b/Resultados/Probabilidades de N.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11103"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,33 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joserodolforojasmazariegos/Documents/2do Semestre 2019/Taller/Centro_de_Investigaciones_UFM_CC/Resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7ED9942B-BC85-9148-85E1-2B10B4E56D23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B073E5-967C-BF4D-93C1-6B90878F4E49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Probabilidades de N" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Hoja1!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Hoja1!$A$2:$A$22</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Hoja1!$B$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Hoja1!$B$2:$B$22</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Hoja1!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Hoja1!$B$2:$B$22</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Hoja1!$A$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Hoja1!$A$2:$A$22</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Hoja1!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Hoja1!$B$2:$B$22</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Hoja1!$A$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Hoja1!$A$2:$A$22</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -48,8 +30,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="56">
   <si>
     <t>CC</t>
   </si>
@@ -218,20 +222,11 @@
   <si>
     <t>Pradera Concepci√≥n TacoBell En Fin de Semana</t>
   </si>
-  <si>
-    <t>Etiquetas de fila</t>
-  </si>
-  <si>
-    <t>Total general</t>
-  </si>
-  <si>
-    <t>Suma de La Pradera BurgerKing Entre Semana</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -709,13 +704,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -776,447 +767,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Probabilidades de N.xlsx]Hoja2!TablaDinámica1</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-GT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-GT"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:areaChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja2!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja2!$A$4:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja2!$B$4:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.67651689999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21884179260950601</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.0791624263254693E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.2899894970117102E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.4077293055499899E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3962753338350102E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.7515460388704997E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.50749424092958E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.1113204214564496E-5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.6238751780799798E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.4877930995457695E-6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1E99-0146-B102-F993706716F2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1021117360"/>
-        <c:axId val="996400480"/>
-      </c:areaChart>
-      <c:catAx>
-        <c:axId val="1021117360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-GT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="996400480"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="996400480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-GT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1021117360"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-GT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-GT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1296,7 +846,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$Q$1</c:f>
+              <c:f>Hoja1!$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1374,42 +924,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$AA$2:$AA$12</c:f>
+              <c:f>Hoja1!$B$19:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.76044290000000003</c:v>
+                  <c:v>0.92481910000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18216947732031799</c:v>
+                  <c:v>6.9528698423307403E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3639987258948701E-2</c:v>
+                  <c:v>5.2272275782790697E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.04542677290143E-2</c:v>
+                  <c:v>3.9298748250350901E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.50439380519064E-3</c:v>
+                  <c:v>2.95451382385174E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.9994525623925405E-4</c:v>
+                  <c:v>2.22122900193217E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.43721131132803E-4</c:v>
+                  <c:v>1.6699391416596599E-7</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>3.4429413882814501E-5</c:v>
+                <c:pt idx="7">
+                  <c:v>1.25547466489102E-8</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>8.2478097059979505E-6</c:v>
+                <c:pt idx="8">
+                  <c:v>9.4387669278576293E-10</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>1.9758211736595801E-6</c:v>
+                <c:pt idx="9">
+                  <c:v>7.0961464703194496E-11</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>4.7332194236277797E-7</c:v>
+                <c:pt idx="10">
+                  <c:v>5.3349441842459602E-12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1417,7 +967,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7D05-3C42-92C7-A16FF3915851}"/>
+              <c16:uniqueId val="{00000000-7EAD-FC4A-8707-0FF2961CE9D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1426,125 +976,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Probabilidades de N'!$D$2:$D$40</c:f>
+              <c:f>Hoja1!$D$18</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>La Pradera BurgerKing Entre Semana</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>La Pradera BurgerKing En Fin de Semana</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>La Pradera GoGreen Entre Semana</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>La Pradera GoGreen En Fin de Semana</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>La Pradera PandaExpress Entre Semana</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>La Pradera PandaExpress En Fin de Semana</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>La Pradera PolloCampero Entre Semana</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>La Pradera PolloCampero En Fin de Semana</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>La Pradera Subway Entre Semana</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>La Pradera Subway En Fin de Semana</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>La Pradera TacoBell Entre Semana</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>La Pradera TacoBell En Fin de Semana</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Miraflores BurgerKing Entre Semana</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Miraflores BurgerKing En Fin de Semana</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Miraflores GoGreen Entre Semana</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Miraflores GoGreen En Fin de Semana</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Miraflores KFC Entre Semana</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Miraflores KFC En Fin de Semana</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>Miraflores McDonalds Entre Semana</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Miraflores McDonalds En Fin de Semana</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Miraflores PolloCampero Entre Semana</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Miraflores PolloCampero En Fin de Semana</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Miraflores Subway Entre Semana</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Miraflores Subway En Fin de Semana</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Miraflores TacoBell Entre Semana</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Miraflores TacoBell En Fin de Semana</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Pradera Concepci√≥n BurgerKing Entre Semana</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Pradera Concepci√≥n BurgerKing En Fin de Semana</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Pradera Concepci√≥n GoGreen Entre Semana</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Pradera Concepci√≥n GoGreen En Fin de Semana</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Pradera Concepci√≥n McDonalds Entre Semana</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Pradera Concepci√≥n McDonalds En Fin de Semana</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Pradera Concepci√≥n PandaExpress Entre Semana</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Pradera Concepci√≥n PandaExpress En Fin de Semana</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Pradera Concepci√≥n PolloCampero Entre Semana</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Pradera Concepci√≥n PolloCampero En Fin de Semana</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Pradera Concepci√≥n Subway Entre Semana</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>Pradera Concepci√≥n Subway En Fin de Semana</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Pradera Concepci√≥n TacoBell Entre Semana</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1618,12 +1054,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Probabilidades de N'!$D$41</c:f>
+              <c:f>Hoja1!$D$19:$D$29</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.7932709</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16399214335450699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3901940789716603E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0085161752223698E-3</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.4488639244291501E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>2.9952226962587402E-4</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>6.1919955690235894E-5</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.2800653912878801E-5</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>2.6462670841855502E-6</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>5.4706029305256303E-7</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.1309325729941E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1631,7 +1097,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7D05-3C42-92C7-A16FF3915851}"/>
+              <c16:uniqueId val="{00000003-7EAD-FC4A-8707-0FF2961CE9D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1891,6 +1357,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1968,550 +1465,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3031,31 +1985,41 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="15" fmlaLink="$D$15" fmlaRange="'Probabilidades de N'!$D$2:$D$41" noThreeD="1" sel="16" val="10"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="15" fmlaLink="$B$15" fmlaRange="'Probabilidades de N'!$D$2:$D$41" noThreeD="1" sel="15" val="14"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D223D697-EF20-944C-A482-3E4E572FE298}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4580020B-6CE6-4847-9356-EE0AA7E96215}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3069,834 +2033,123 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>469900</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>698500</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2054" name="Drop Down 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2054"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65808B3-851D-3F42-882E-807A9409434E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>787400</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>177800</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2055" name="Drop Down 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2055"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06EBEA22-CCFC-3B45-8EBE-19C9088D1498}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94EC9186-66BA-4E42-9C36-2FC9FF4A33C3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Usuario de Microsoft Office" refreshedDate="43776.538745717589" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="11">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:AO12" sheet="Hoja1"/>
-  </cacheSource>
-  <cacheFields count="41">
-    <cacheField name="Personas" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="10" count="11">
-        <n v="0"/>
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-        <n v="5"/>
-        <n v="6"/>
-        <n v="7"/>
-        <n v="8"/>
-        <n v="9"/>
-        <n v="10"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="La Pradera BurgerKing Entre Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.4877930995457695E-6" maxValue="0.67651689999999998" count="11">
-        <n v="0.67651689999999998"/>
-        <n v="0.21884179260950601"/>
-        <n v="7.0791624263254693E-2"/>
-        <n v="2.2899894970117102E-2"/>
-        <n v="7.4077293055499899E-3"/>
-        <n v="2.3962753338350102E-3"/>
-        <n v="7.7515460388704997E-4"/>
-        <n v="2.50749424092958E-4"/>
-        <n v="8.1113204214564496E-5"/>
-        <n v="2.6238751780799798E-5"/>
-        <n v="8.4877930995457695E-6"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="La Pradera BurgerKing En Fin de Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.8217976343468999E-8" maxValue="0.81502649999999999"/>
-    </cacheField>
-    <cacheField name="La Pradera GoGreen Entre Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.1494812395629499E-10" maxValue="0.87851889999999999"/>
-    </cacheField>
-    <cacheField name="La Pradera GoGreen En Fin de Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.1804990343624199E-15" maxValue="0.96337790000000001"/>
-    </cacheField>
-    <cacheField name="La Pradera PandaExpress Entre Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.0462527239756101E-4" maxValue="0.57751920000000001"/>
-    </cacheField>
-    <cacheField name="La Pradera PandaExpress En Fin de Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.1948886506165099E-8" maxValue="0.8091218"/>
-    </cacheField>
-    <cacheField name="La Pradera PolloCampero Entre Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.5068181719585101E-6" maxValue="0.70510600000000001"/>
-    </cacheField>
-    <cacheField name="La Pradera PolloCampero En Fin de Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.9223945048182E-4" maxValue="0.46507090000000001"/>
-    </cacheField>
-    <cacheField name="La Pradera Subway Entre Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.4515061731968099E-8" maxValue="0.80193369999999997"/>
-    </cacheField>
-    <cacheField name="La Pradera Subway En Fin de Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.8995094173462801E-10" maxValue="0.88743099999999997"/>
-    </cacheField>
-    <cacheField name="La Pradera TacoBell Entre Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.2970395632089901E-6" maxValue="0.70699800000000002"/>
-    </cacheField>
-    <cacheField name="La Pradera TacoBell En Fin de Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.4315858220671701E-9" maxValue="0.86764280000000005"/>
-    </cacheField>
-    <cacheField name="Miraflores BurgerKing Entre Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.4424221120020999E-11" maxValue="0.90688780000000002"/>
-    </cacheField>
-    <cacheField name="Miraflores BurgerKing En Fin de Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.5804406065566705E-5" maxValue="0.59192219999999995"/>
-    </cacheField>
-    <cacheField name="Miraflores GoGreen Entre Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.9754091659725904E-15" maxValue="0.96356240000000004"/>
-    </cacheField>
-    <cacheField name="Miraflores GoGreen En Fin de Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.3349441842459602E-12" maxValue="0.92481910000000001"/>
-    </cacheField>
-    <cacheField name="Miraflores KFC Entre Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.2818183909295601E-7" maxValue="0.76932500000000004"/>
-    </cacheField>
-    <cacheField name="Miraflores KFC En Fin de Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.32853101996744E-6" maxValue="0.73343630000000004"/>
-    </cacheField>
-    <cacheField name="Miraflores McDonalds Entre Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.1309325729941E-7" maxValue="0.7932709"/>
-    </cacheField>
-    <cacheField name="Miraflores McDonalds En Fin de Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.22879244082981E-5" maxValue="0.60042870000000004"/>
-    </cacheField>
-    <cacheField name="Miraflores PolloCampero Entre Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.3441622672756695E-10" maxValue="0.87469960000000002"/>
-    </cacheField>
-    <cacheField name="Miraflores PolloCampero En Fin de Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.0566056101480398E-9" maxValue="0.84952360000000005"/>
-    </cacheField>
-    <cacheField name="Miraflores Subway Entre Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.4954429421272901E-10" maxValue="0.87304559999999998"/>
-    </cacheField>
-    <cacheField name="Miraflores Subway En Fin de Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.5568978606131499E-10" maxValue="0.87595299999999998"/>
-    </cacheField>
-    <cacheField name="Miraflores TacoBell Entre Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.8999206388763097E-11" maxValue="0.90011300000000005"/>
-    </cacheField>
-    <cacheField name="Miraflores TacoBell En Fin de Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.7332194236277797E-7" maxValue="0.76044290000000003"/>
-    </cacheField>
-    <cacheField name="Pradera Concepci√≥n BurgerKing Entre Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.26536436324763E-7" maxValue="0.79087260000000004"/>
-    </cacheField>
-    <cacheField name="Pradera Concepci√≥n BurgerKing En Fin de Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.8655247461418502E-8" maxValue="0.82039510000000004"/>
-    </cacheField>
-    <cacheField name="Pradera Concepci√≥n GoGreen Entre Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.4752446402486901E-11" maxValue="0.91222890000000001"/>
-    </cacheField>
-    <cacheField name="Pradera Concepci√≥n GoGreen En Fin de Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.3446348929599799E-7" maxValue="0.77717939999999996"/>
-    </cacheField>
-    <cacheField name="Pradera Concepci√≥n McDonalds Entre Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.7652709248493501E-7" maxValue="0.78359259999999997"/>
-    </cacheField>
-    <cacheField name="Pradera Concepci√≥n McDonalds En Fin de Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.7638755479536499E-6" maxValue="0.72547329999999999"/>
-    </cacheField>
-    <cacheField name="Pradera Concepci√≥n PandaExpress Entre Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.55976979375515E-6" maxValue="0.70464439999999995"/>
-    </cacheField>
-    <cacheField name="Pradera Concepci√≥n PandaExpress En Fin de Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.1818204593986497E-5" maxValue="0.59428210000000004"/>
-    </cacheField>
-    <cacheField name="Pradera Concepci√≥n PolloCampero Entre Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.76632883270477E-8" maxValue="0.8107974"/>
-    </cacheField>
-    <cacheField name="Pradera Concepci√≥n PolloCampero En Fin de Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.0334287278958101E-4" maxValue="0.57808090000000001"/>
-    </cacheField>
-    <cacheField name="Pradera Concepci√≥n Subway Entre Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.15001615385169E-9" maxValue="0.86205989999999999"/>
-    </cacheField>
-    <cacheField name="Pradera Concepci√≥n Subway En Fin de Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.2125343442618705E-11" maxValue="0.90221370000000001"/>
-    </cacheField>
-    <cacheField name="Pradera Concepci√≥n TacoBell Entre Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.1902731359414799E-7" maxValue="0.76999680000000004"/>
-    </cacheField>
-    <cacheField name="Pradera Concepci√≥n TacoBell En Fin de Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.9279504150882207E-9" maxValue="0.84055210000000002"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="11">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0.81502649999999999"/>
-    <n v="0.87851889999999999"/>
-    <n v="0.96337790000000001"/>
-    <n v="0.57751920000000001"/>
-    <n v="0.8091218"/>
-    <n v="0.70510600000000001"/>
-    <n v="0.46507090000000001"/>
-    <n v="0.80193369999999997"/>
-    <n v="0.88743099999999997"/>
-    <n v="0.70699800000000002"/>
-    <n v="0.86764280000000005"/>
-    <n v="0.90688780000000002"/>
-    <n v="0.59192219999999995"/>
-    <n v="0.96356240000000004"/>
-    <n v="0.92481910000000001"/>
-    <n v="0.76932500000000004"/>
-    <n v="0.73343630000000004"/>
-    <n v="0.7932709"/>
-    <n v="0.60042870000000004"/>
-    <n v="0.87469960000000002"/>
-    <n v="0.84952360000000005"/>
-    <n v="0.87304559999999998"/>
-    <n v="0.87595299999999998"/>
-    <n v="0.90011300000000005"/>
-    <n v="0.76044290000000003"/>
-    <n v="0.79087260000000004"/>
-    <n v="0.82039510000000004"/>
-    <n v="0.91222890000000001"/>
-    <n v="0.77717939999999996"/>
-    <n v="0.78359259999999997"/>
-    <n v="0.72547329999999999"/>
-    <n v="0.70464439999999995"/>
-    <n v="0.59428210000000004"/>
-    <n v="0.8107974"/>
-    <n v="0.57808090000000001"/>
-    <n v="0.86205989999999999"/>
-    <n v="0.90221370000000001"/>
-    <n v="0.76999680000000004"/>
-    <n v="0.84055210000000002"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0.150758332608493"/>
-    <n v="0.106723447606848"/>
-    <n v="3.5280913719392598E-2"/>
-    <n v="0.243990796440434"/>
-    <n v="0.15444367832820399"/>
-    <n v="0.20793150360460899"/>
-    <n v="0.24877995884544299"/>
-    <n v="0.158836030325677"/>
-    <n v="9.9897262731357697E-2"/>
-    <n v="0.207151833967261"/>
-    <n v="0.11483879038328899"/>
-    <n v="8.4442325646028299E-2"/>
-    <n v="0.24155031632071799"/>
-    <n v="3.5109936474354397E-2"/>
-    <n v="6.9528698423307403E-2"/>
-    <n v="0.17746402010582599"/>
-    <n v="0.195507458692918"/>
-    <n v="0.16399214335450699"/>
-    <n v="0.239914051368595"/>
-    <n v="0.10960019055869499"/>
-    <n v="0.127833244447873"/>
-    <n v="0.11083699888892699"/>
-    <n v="0.108659344093837"/>
-    <n v="8.9909574859635397E-2"/>
-    <n v="0.18216947732031799"/>
-    <n v="0.16539311872016599"/>
-    <n v="0.147346956007539"/>
-    <n v="8.0067313534054899E-2"/>
-    <n v="0.17317160214033001"/>
-    <n v="0.16957523602644001"/>
-    <n v="0.19916181898243199"/>
-    <n v="0.208120660583863"/>
-    <n v="0.241110897025895"/>
-    <n v="0.15340499920792"/>
-    <n v="0.243903375822586"/>
-    <n v="0.118912599084094"/>
-    <n v="8.8224105788445695E-2"/>
-    <n v="0.17710173464586099"/>
-    <n v="0.13402423923898299"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="2.78863016734953E-2"/>
-    <n v="1.29648824505559E-2"/>
-    <n v="1.2920608547022101E-3"/>
-    <n v="0.103081436509188"/>
-    <n v="2.9479924747480402E-2"/>
-    <n v="6.1317745404625298E-2"/>
-    <n v="0.133079639949824"/>
-    <n v="3.1460062757830899E-2"/>
-    <n v="1.12453397517304E-2"/>
-    <n v="6.0695903405666801E-2"/>
-    <n v="1.5199743231542899E-2"/>
-    <n v="7.8626114062951193E-3"/>
-    <n v="9.8571324600832802E-2"/>
-    <n v="1.2793231027209101E-3"/>
-    <n v="5.2272275782790697E-3"/>
-    <n v="4.0936507239620397E-2"/>
-    <n v="5.2115182197231102E-2"/>
-    <n v="3.3901940789716603E-2"/>
-    <n v="9.5862759465183398E-2"/>
-    <n v="1.3732945311169999E-2"/>
-    <n v="1.92358851314661E-2"/>
-    <n v="1.40712470490706E-2"/>
-    <n v="1.34788659424681E-2"/>
-    <n v="8.9807964682660692E-3"/>
-    <n v="4.3639987258948701E-2"/>
-    <n v="3.4588230417873803E-2"/>
-    <n v="2.6464231008556199E-2"/>
-    <n v="7.0275943861904102E-3"/>
-    <n v="3.8586205177142799E-2"/>
-    <n v="3.6697335673438899E-2"/>
-    <n v="5.4675244616709098E-2"/>
-    <n v="6.14695999313465E-2"/>
-    <n v="9.7823011436204504E-2"/>
-    <n v="2.9024629065142499E-2"/>
-    <n v="0.102907493981645"/>
-    <n v="1.6402811708251901E-2"/>
-    <n v="8.6271055761743091E-3"/>
-    <n v="4.07339672250236E-2"/>
-    <n v="2.1369879039726501E-2"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="5.15822779126026E-3"/>
-    <n v="1.5749882591493999E-3"/>
-    <n v="4.7317971000739599E-5"/>
-    <n v="4.3549931832743902E-2"/>
-    <n v="5.6270737172568301E-3"/>
-    <n v="1.8082233025429301E-2"/>
-    <n v="7.11881722762778E-2"/>
-    <n v="6.2311778171319403E-3"/>
-    <n v="1.2658771889668E-3"/>
-    <n v="1.7784021602301001E-2"/>
-    <n v="2.0117957837568301E-3"/>
-    <n v="7.3210511024467302E-4"/>
-    <n v="4.0224770480788499E-2"/>
-    <n v="4.66155101804564E-5"/>
-    <n v="3.9298748250350901E-4"/>
-    <n v="9.4430275161138406E-3"/>
-    <n v="1.38920132950865E-2"/>
-    <n v="7.0085161752223698E-3"/>
-    <n v="3.8304003453974202E-2"/>
-    <n v="1.7207432392062E-3"/>
-    <n v="2.89454655077494E-3"/>
-    <n v="1.7864070256395101E-3"/>
-    <n v="1.6720129190006001E-3"/>
-    <n v="8.9706469339151601E-4"/>
-    <n v="1.04542677290143E-2"/>
-    <n v="7.2333461796803304E-3"/>
-    <n v="4.7531047932771499E-3"/>
-    <n v="6.1681953192808405E-4"/>
-    <n v="8.5978024778337204E-3"/>
-    <n v="7.9415749438737394E-3"/>
-    <n v="1.5009816586183399E-2"/>
-    <n v="1.81553897874412E-2"/>
-    <n v="3.9688548649130802E-2"/>
-    <n v="5.4915361084635498E-3"/>
-    <n v="4.3418637736630898E-2"/>
-    <n v="2.2626049216710399E-3"/>
-    <n v="8.43612411339455E-4"/>
-    <n v="9.3689431625681406E-3"/>
-    <n v="3.4073816256344198E-3"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <n v="9.5413562752276904E-4"/>
-    <n v="1.9133131564583601E-4"/>
-    <n v="1.7328830693062601E-6"/>
-    <n v="1.83990117606441E-2"/>
-    <n v="1.0740854629267299E-3"/>
-    <n v="5.3323413805958899E-3"/>
-    <n v="3.8080625059909598E-2"/>
-    <n v="1.2341862534604299E-3"/>
-    <n v="1.4249858989808699E-4"/>
-    <n v="5.2107540477201401E-3"/>
-    <n v="2.6627570044358601E-4"/>
-    <n v="6.8167923448084899E-5"/>
-    <n v="1.6414836330792701E-2"/>
-    <n v="1.69855901512496E-6"/>
-    <n v="2.95451382385174E-5"/>
-    <n v="2.17827007438923E-3"/>
-    <n v="3.7031057986229902E-3"/>
-    <n v="1.4488639244291501E-3"/>
-    <n v="1.53051788701633E-2"/>
-    <n v="2.1560977839658901E-4"/>
-    <n v="4.3556091530707198E-4"/>
-    <n v="2.2679227008987599E-4"/>
-    <n v="2.0740819095890601E-4"/>
-    <n v="8.9605088699330399E-5"/>
-    <n v="2.50439380519064E-3"/>
-    <n v="1.51269077148447E-3"/>
-    <n v="8.5368077268407601E-4"/>
-    <n v="5.4138914977167399E-5"/>
-    <n v="1.91576774934148E-3"/>
-    <n v="1.71861557335923E-3"/>
-    <n v="4.1205959942247003E-3"/>
-    <n v="5.3622958129232101E-3"/>
-    <n v="1.61023553737321E-2"/>
-    <n v="1.0390130658646901E-3"/>
-    <n v="1.8319152764919602E-2"/>
-    <n v="3.1210387113049401E-4"/>
-    <n v="8.2493704786856898E-5"/>
-    <n v="2.1548869889969702E-3"/>
-    <n v="5.4329973141764901E-4"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <n v="1.7648983964041801E-4"/>
-    <n v="2.32431398355547E-5"/>
-    <n v="6.3461802532516299E-8"/>
-    <n v="7.7732299345138001E-3"/>
-    <n v="2.05019454096103E-4"/>
-    <n v="1.57247528882236E-3"/>
-    <n v="2.0370434562156099E-2"/>
-    <n v="2.4445068860701901E-4"/>
-    <n v="1.6040930589417298E-5"/>
-    <n v="1.5267614014997999E-3"/>
-    <n v="3.5243511900755001E-5"/>
-    <n v="6.3472658805385902E-6"/>
-    <n v="6.6985304961628403E-3"/>
-    <n v="6.1891475963548798E-8"/>
-    <n v="2.22122900193217E-6"/>
-    <n v="5.0247238069389298E-4"/>
-    <n v="9.8711340570379496E-4"/>
-    <n v="2.9952226962587402E-4"/>
-    <n v="6.1155095845050102E-3"/>
-    <n v="2.7015986744002399E-5"/>
-    <n v="6.5541634109267998E-5"/>
-    <n v="2.8792281397408001E-5"/>
-    <n v="2.5728364409145198E-5"/>
-    <n v="8.95038226335662E-6"/>
-    <n v="5.9994525623925405E-4"/>
-    <n v="3.1634506538098599E-4"/>
-    <n v="1.53325224952175E-4"/>
-    <n v="4.7518309054562896E-6"/>
-    <n v="4.26872573413859E-4"/>
-    <n v="3.7192112520090899E-4"/>
-    <n v="1.13121377933759E-3"/>
-    <n v="1.5837840289820799E-3"/>
-    <n v="6.53301411634354E-3"/>
-    <n v="1.96584003039466E-4"/>
-    <n v="7.72920053503506E-3"/>
-    <n v="4.3051628431312202E-5"/>
-    <n v="8.0667510790364492E-6"/>
-    <n v="4.9563092173520698E-4"/>
-    <n v="8.6627983181523306E-5"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="6"/>
-    <n v="3.2645949483274098E-5"/>
-    <n v="2.8236023339491799E-6"/>
-    <n v="2.3241039467760701E-9"/>
-    <n v="3.2840407083204199E-3"/>
-    <n v="3.9133735637134697E-5"/>
-    <n v="4.6371347171336898E-4"/>
-    <n v="1.0896738265148399E-2"/>
-    <n v="4.8417440230678802E-5"/>
-    <n v="1.8057122835989401E-6"/>
-    <n v="4.4734415705717501E-4"/>
-    <n v="4.6647333159933403E-6"/>
-    <n v="5.9100794215818599E-7"/>
-    <n v="2.7335216692871301E-3"/>
-    <n v="2.2551791034853898E-9"/>
-    <n v="1.6699391416596599E-7"/>
-    <n v="1.15907800565539E-4"/>
-    <n v="2.63128554437325E-4"/>
-    <n v="6.1919955690235894E-5"/>
-    <n v="2.44358186176322E-3"/>
-    <n v="3.3851133523713E-6"/>
-    <n v="9.8624684877537007E-6"/>
-    <n v="3.6553074218049999E-6"/>
-    <n v="3.1915264874998099E-6"/>
-    <n v="8.94026710123745E-7"/>
-    <n v="1.43721131132803E-4"/>
-    <n v="6.6156416286385498E-5"/>
-    <n v="2.7537957230454201E-5"/>
-    <n v="4.1707331895315001E-7"/>
-    <n v="9.5116014973947594E-5"/>
-    <n v="8.0486483140809696E-5"/>
-    <n v="3.10548429488538E-4"/>
-    <n v="4.6777946200086701E-4"/>
-    <n v="2.6505608933441302E-3"/>
-    <n v="3.7194210083257502E-5"/>
-    <n v="3.2610973704628398E-3"/>
-    <n v="5.93854444635461E-6"/>
-    <n v="7.8881743933390803E-7"/>
-    <n v="1.13996702302441E-4"/>
-    <n v="1.3812647119329099E-5"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="7"/>
-    <n v="6.0386366707333996E-6"/>
-    <n v="3.4301433440965202E-7"/>
-    <n v="8.5113547675430506E-11"/>
-    <n v="1.3874442753867E-3"/>
-    <n v="7.4697753521442899E-6"/>
-    <n v="1.36746303981351E-4"/>
-    <n v="5.82898241354852E-3"/>
-    <n v="9.5898626093051992E-6"/>
-    <n v="2.03267312514351E-7"/>
-    <n v="1.3107273648430701E-4"/>
-    <n v="6.1741114139286603E-7"/>
-    <n v="5.5030054557036197E-8"/>
-    <n v="1.11548954218282E-3"/>
-    <n v="8.2173396410718899E-11"/>
-    <n v="1.25547466489102E-8"/>
-    <n v="2.6737028239021E-5"/>
-    <n v="7.0140508436223505E-5"/>
-    <n v="1.2800653912878801E-5"/>
-    <n v="9.7638508003769205E-4"/>
-    <n v="4.24155982788465E-7"/>
-    <n v="1.4840686533657899E-6"/>
-    <n v="4.6405743829335801E-7"/>
-    <n v="3.9589929458525199E-7"/>
-    <n v="8.9301633706417305E-8"/>
-    <n v="3.4429413882814501E-5"/>
-    <n v="1.38351183401155E-5"/>
-    <n v="4.9459512527235003E-6"/>
-    <n v="3.66069746258979E-8"/>
-    <n v="2.1193810209383002E-5"/>
-    <n v="1.7417870428511999E-5"/>
-    <n v="8.5253847521438695E-5"/>
-    <n v="1.3816127771565999E-4"/>
-    <n v="1.07538005034303E-3"/>
-    <n v="7.0372423103001297E-6"/>
-    <n v="1.3759192831696099E-3"/>
-    <n v="8.1916320999554597E-7"/>
-    <n v="7.7135509265227895E-8"/>
-    <n v="2.62196073044332E-5"/>
-    <n v="2.2023971173763201E-6"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <n v="1.1169879699718599E-6"/>
-    <n v="4.1669760715183698E-8"/>
-    <n v="3.1170361411532E-12"/>
-    <n v="5.8616862221778996E-4"/>
-    <n v="1.42581695570497E-6"/>
-    <n v="4.0325659686933902E-5"/>
-    <n v="3.1180923273277602E-3"/>
-    <n v="1.8994284792254999E-6"/>
-    <n v="2.2881607835361898E-8"/>
-    <n v="3.8404575042407199E-5"/>
-    <n v="8.1718823283870306E-8"/>
-    <n v="5.1239698970743197E-9"/>
-    <n v="4.5520653181568903E-4"/>
-    <n v="2.99420434822102E-12"/>
-    <n v="9.4387669278576293E-10"/>
-    <n v="6.16756314558822E-6"/>
-    <n v="1.8696910087208999E-5"/>
-    <n v="2.6462670841855502E-6"/>
-    <n v="3.9013541532523802E-4"/>
-    <n v="5.3146904994841998E-8"/>
-    <n v="2.2331729329607099E-7"/>
-    <n v="5.8914143513831802E-8"/>
-    <n v="4.9110120836216197E-8"/>
-    <n v="8.9200710586502695E-9"/>
-    <n v="8.2478097059979505E-6"/>
-    <n v="2.8933021198790801E-6"/>
-    <n v="8.8831693613294495E-7"/>
-    <n v="3.2130336091138499E-9"/>
-    <n v="4.7224181050307496E-6"/>
-    <n v="3.76935602632397E-6"/>
-    <n v="2.3404460712228399E-5"/>
-    <n v="4.0806705318730702E-5"/>
-    <n v="4.3630095636728602E-4"/>
-    <n v="1.3314647420397901E-6"/>
-    <n v="5.8052663221438603E-4"/>
-    <n v="1.12995426854491E-7"/>
-    <n v="7.5427931647026601E-9"/>
-    <n v="6.0305938094137597E-6"/>
-    <n v="3.5116752210658898E-7"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <n v="2.0661321306326E-7"/>
-    <n v="5.06208861810122E-9"/>
-    <n v="1.14152383147106E-13"/>
-    <n v="2.47645011600152E-4"/>
-    <n v="2.7215731335108898E-7"/>
-    <n v="1.189179364883E-5"/>
-    <n v="1.66795832822241E-3"/>
-    <n v="3.7621274617554701E-7"/>
-    <n v="2.5757608080459702E-9"/>
-    <n v="1.1252617620938E-5"/>
-    <n v="1.0816076405480901E-8"/>
-    <n v="4.7710415185781004E-10"/>
-    <n v="1.85759685565665E-4"/>
-    <n v="1.09101729641252E-13"/>
-    <n v="7.0961464703194496E-11"/>
-    <n v="1.4227024340462301E-6"/>
-    <n v="4.9839166353781699E-6"/>
-    <n v="5.4706029305256303E-7"/>
-    <n v="1.55886898932458E-4"/>
-    <n v="6.6593272879506796E-9"/>
-    <n v="3.3603980093494697E-8"/>
-    <n v="7.4794109943222693E-9"/>
-    <n v="6.0919632884781499E-9"/>
-    <n v="8.9099901523584603E-10"/>
-    <n v="1.9758211736595801E-6"/>
-    <n v="6.0506870639653903E-7"/>
-    <n v="1.5954604861625001E-7"/>
-    <n v="2.8201142210729602E-10"/>
-    <n v="1.05225216883602E-6"/>
-    <n v="8.1571653156445102E-7"/>
-    <n v="6.4251502677635096E-6"/>
-    <n v="1.20524884142772E-5"/>
-    <n v="1.77015116159433E-4"/>
-    <n v="2.5191662886189302E-7"/>
-    <n v="2.4493527696902898E-4"/>
-    <n v="1.5586596583235299E-8"/>
-    <n v="7.3758155313213803E-10"/>
-    <n v="1.3870559261957599E-6"/>
-    <n v="5.5992912272510202E-8"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="10"/>
-    <n v="3.8217976343468999E-8"/>
-    <n v="6.1494812395629499E-10"/>
-    <n v="4.1804990343624199E-15"/>
-    <n v="1.0462527239756101E-4"/>
-    <n v="5.1948886506165099E-8"/>
-    <n v="3.5068181719585101E-6"/>
-    <n v="8.9223945048182E-4"/>
-    <n v="7.4515061731968099E-8"/>
-    <n v="2.8995094173462801E-10"/>
-    <n v="3.2970395632089901E-6"/>
-    <n v="1.4315858220671701E-9"/>
-    <n v="4.4424221120020999E-11"/>
-    <n v="7.5804406065566705E-5"/>
-    <n v="3.9754091659725904E-15"/>
-    <n v="5.3349441842459602E-12"/>
-    <n v="3.2818183909295601E-7"/>
-    <n v="1.32853101996744E-6"/>
-    <n v="1.1309325729941E-7"/>
-    <n v="6.22879244082981E-5"/>
-    <n v="8.3441622672756695E-10"/>
-    <n v="5.0566056101480398E-9"/>
-    <n v="9.4954429421272901E-10"/>
-    <n v="7.5568978606131499E-10"/>
-    <n v="8.8999206388763097E-11"/>
-    <n v="4.7332194236277797E-7"/>
-    <n v="1.26536436324763E-7"/>
-    <n v="2.8655247461418502E-8"/>
-    <n v="2.4752446402486901E-11"/>
-    <n v="2.3446348929599799E-7"/>
-    <n v="1.7652709248493501E-7"/>
-    <n v="1.7638755479536499E-6"/>
-    <n v="3.55976979375515E-6"/>
-    <n v="7.1818204593986497E-5"/>
-    <n v="4.76632883270477E-8"/>
-    <n v="1.0334287278958101E-4"/>
-    <n v="2.15001615385169E-9"/>
-    <n v="7.2125343442618705E-11"/>
-    <n v="3.1902731359414799E-7"/>
-    <n v="8.9279504150882207E-9"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="41">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="12">
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de La Pradera BurgerKing Entre Semana" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4195,11 +2448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7370,136 +5623,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AO29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.67651689999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.21884179260950601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4">
-        <v>7.0791624263254693E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2.2899894970117102E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4">
-        <v>7.4077293055499899E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4">
-        <v>2.3962753338350102E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4">
-        <v>7.7515460388704997E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4">
-        <v>2.50749424092958E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4">
-        <v>8.1113204214564496E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4">
-        <v>2.6238751780799798E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4">
-        <v>8.4877930995457695E-6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.99999596025933768</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO22"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -9043,9 +7177,7 @@
       <c r="AO13" s="1"/>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -9084,9 +7216,13 @@
       <c r="AO14" s="1"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
+      <c r="B15" s="2">
+        <v>15</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15">
+        <v>16</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -9125,7 +7261,6 @@
       <c r="AO15" s="1"/>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -9209,9 +7344,15 @@
       <c r="AO17" s="1"/>
     </row>
     <row r="18" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
+      <c r="B18" t="str">
+        <f ca="1">OFFSET(B1,0,B15,1,1)</f>
+        <v>Miraflores GoGreen En Fin de Semana</v>
+      </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" t="str">
+        <f ca="1">OFFSET(D1,0,D15,1,1)</f>
+        <v>Miraflores McDonalds Entre Semana</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -9251,9 +7392,15 @@
       <c r="AO18" s="1"/>
     </row>
     <row r="19" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
+      <c r="B19" s="2" cm="1">
+        <f t="array" aca="1" ref="B19:B29" ca="1">OFFSET(B1,1,B15,11,1)</f>
+        <v>0.92481910000000001</v>
+      </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="2" cm="1">
+        <f t="array" aca="1" ref="D19:D29" ca="1">OFFSET(D1,1,D15,11,1)</f>
+        <v>0.7932709</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -9293,9 +7440,15 @@
       <c r="AO19" s="1"/>
     </row>
     <row r="20" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
+      <c r="B20" s="2">
+        <f ca="1"/>
+        <v>6.9528698423307403E-2</v>
+      </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <f ca="1"/>
+        <v>0.16399214335450699</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -9335,9 +7488,15 @@
       <c r="AO20" s="1"/>
     </row>
     <row r="21" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
+      <c r="B21" s="2">
+        <f ca="1"/>
+        <v>5.2272275782790697E-3</v>
+      </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <f ca="1"/>
+        <v>3.3901940789716603E-2</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -9377,9 +7536,15 @@
       <c r="AO21" s="1"/>
     </row>
     <row r="22" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
+      <c r="B22" s="2">
+        <f ca="1"/>
+        <v>3.9298748250350901E-4</v>
+      </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <f ca="1"/>
+        <v>7.0085161752223698E-3</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -9418,9 +7583,130 @@
       <c r="AN22" s="1"/>
       <c r="AO22" s="1"/>
     </row>
+    <row r="23" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B23" s="2">
+        <f ca="1"/>
+        <v>2.95451382385174E-5</v>
+      </c>
+      <c r="D23">
+        <f ca="1"/>
+        <v>1.4488639244291501E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <f ca="1"/>
+        <v>2.22122900193217E-6</v>
+      </c>
+      <c r="D24">
+        <f ca="1"/>
+        <v>2.9952226962587402E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B25" s="2">
+        <f ca="1"/>
+        <v>1.6699391416596599E-7</v>
+      </c>
+      <c r="D25">
+        <f ca="1"/>
+        <v>6.1919955690235894E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B26" s="2">
+        <f ca="1"/>
+        <v>1.25547466489102E-8</v>
+      </c>
+      <c r="D26">
+        <f ca="1"/>
+        <v>1.2800653912878801E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
+        <f ca="1"/>
+        <v>9.4387669278576293E-10</v>
+      </c>
+      <c r="D27">
+        <f ca="1"/>
+        <v>2.6462670841855502E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B28" s="2">
+        <f ca="1"/>
+        <v>7.0961464703194496E-11</v>
+      </c>
+      <c r="D28">
+        <f ca="1"/>
+        <v>5.4706029305256303E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B29" s="2">
+        <f ca="1"/>
+        <v>5.3349441842459602E-12</v>
+      </c>
+      <c r="D29">
+        <f ca="1"/>
+        <v>1.1309325729941E-7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2054" r:id="rId3" name="Drop Down 6">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>469900</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>25400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>698500</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2055" r:id="rId4" name="Drop Down 7">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>787400</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>177800</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>